--- a/data/TopOnePercent/Guangxi Normal University.xlsx
+++ b/data/TopOnePercent/Guangxi Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1437.0</v>
+        <v>1364.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>17988.0</v>
+        <v>16736.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>12.52</v>
+        <v>12.27</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,22 +206,22 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>3692.0</v>
+        <v>3539.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>37495.0</v>
+        <v>35543.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>10.16</v>
+        <v>10.04</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
